--- a/modified_QUPS_keywords.xlsx
+++ b/modified_QUPS_keywords.xlsx
@@ -491,49 +491,49 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>keyword research bangla tutorial 2022</t>
+          <t>keyword density checker</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>key 2</t>
+          <t>keyword</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>keyword10</t>
+          <t>keyword4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>keyword13</t>
+          <t>keyword5</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>keyword16</t>
+          <t>keyword6</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>keyword19</t>
+          <t>keyword7</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>keyword2</t>
+          <t>keyword8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>keyword research by jamal sir</t>
+          <t>12 sided keyword counters</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>keyword</t>
+          <t>keyword 123</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -543,29 +543,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>keyword12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>keyword13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>keyword14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>keyword17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>keyword20</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>keyword3</t>
+          <t>keyword15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>keyword meaning in bengali</t>
+          <t>surfsaya 199 keyword</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -575,17 +575,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>keyword12</t>
+          <t>keyword18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>keyword15</t>
+          <t>keyword19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>keyword18</t>
+          <t>keyword20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
